--- a/Reports/heart/heart_tabfairgan_10_1.xlsx
+++ b/Reports/heart/heart_tabfairgan_10_1.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0448</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0361</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9353</v>
+        <v>1.0638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8736</v>
+        <v>1.1395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0809</v>
+        <v>0.0824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7843</v>
+        <v>1.2745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.06519999999999999</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8696</v>
+        <v>1.0833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0387</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0001</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6859</v>
+        <v>0.5989</v>
       </c>
     </row>
     <row r="13">
